--- a/Code/Data/DJI/Compared Returns/Auto Recurrence/input 250/DJI_returns_compared_trimester.xlsx
+++ b/Code/Data/DJI/Compared Returns/Auto Recurrence/input 250/DJI_returns_compared_trimester.xlsx
@@ -501,13 +501,13 @@
         <v>-0.02128444168333563</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.01230359501542575</v>
+        <v>-0.009285815538273378</v>
       </c>
       <c r="H2" t="n">
-        <v>-42.19441976221211</v>
+        <v>56.37275491448016</v>
       </c>
       <c r="I2" t="n">
-        <v>-31.76283615928029</v>
+        <v>62.00265328516627</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.002664891383783825</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.01720748353941007</v>
+        <v>0.008099029615882528</v>
       </c>
       <c r="H3" t="n">
-        <v>-745.710502278615</v>
+        <v>203.9159368808075</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.05321994618623679</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06184319676716761</v>
+        <v>0.07704765219784708</v>
       </c>
       <c r="H4" t="n">
-        <v>16.20304265388544</v>
+        <v>44.77213473352285</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.0852934825407035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0837276910419015</v>
+        <v>0.07299706921856221</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.835769219593976</v>
+        <v>-14.41659193159716</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.0554920936022294</v>
       </c>
       <c r="G6" t="n">
-        <v>0.036206036529604</v>
+        <v>0.02522870136459212</v>
       </c>
       <c r="H6" t="n">
-        <v>-34.7546034411118</v>
+        <v>-54.5364037885596</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.07491945851042606</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04363448667024192</v>
+        <v>0.06158347119308021</v>
       </c>
       <c r="H7" t="n">
-        <v>-41.75813929011568</v>
+        <v>-17.80043206731127</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.01989470793288118</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.004948620055300525</v>
+        <v>-0.003574231239307375</v>
       </c>
       <c r="H8" t="n">
-        <v>-75.1259477043056</v>
+        <v>82.03426131529164</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.007233984490205318</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.009905970456756737</v>
+        <v>-0.02578863052461392</v>
       </c>
       <c r="H9" t="n">
-        <v>36.93657306245595</v>
+        <v>-256.4927538831643</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.04956874841392311</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01550972330740255</v>
+        <v>-0.06706492555631248</v>
       </c>
       <c r="H10" t="n">
-        <v>-68.71068202511624</v>
+        <v>-35.29679022009554</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.07728189684970925</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.08041553326192778</v>
+        <v>-0.09213651365351634</v>
       </c>
       <c r="H11" t="n">
-        <v>4.054813015669816</v>
+        <v>-19.22134084350309</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.07980687010666844</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06942377914775492</v>
+        <v>-0.09743030749322713</v>
       </c>
       <c r="H12" t="n">
-        <v>-13.01027210443871</v>
+        <v>-22.08260687708154</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.0456853607372041</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05309814308432621</v>
+        <v>-0.03956193447658619</v>
       </c>
       <c r="H13" t="n">
-        <v>16.22572795202968</v>
+        <v>13.40347577825136</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.05569564680090808</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.005629278141550894</v>
+        <v>-0.01849477859383914</v>
       </c>
       <c r="H14" t="n">
-        <v>-89.8927861244281</v>
+        <v>66.79313437197106</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08457829896791694</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.08239623056869962</v>
+        <v>-0.09190737515808232</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.579938856473154</v>
+        <v>-8.665433426304215</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.1551086605234518</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1765624186879599</v>
+        <v>-0.1614096926956944</v>
       </c>
       <c r="H16" t="n">
-        <v>13.83143796878086</v>
+        <v>-4.062334205568058</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.196307304145773</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2440861025015182</v>
+        <v>-0.1864821816855844</v>
       </c>
       <c r="H17" t="n">
-        <v>24.33877769533518</v>
+        <v>5.004970397277071</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1089990278022111</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.08341653776447944</v>
+        <v>-0.1265622770855052</v>
       </c>
       <c r="H18" t="n">
-        <v>-23.4703836846632</v>
+        <v>-16.11321645470475</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.08814841109674791</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.08186988981884448</v>
+        <v>-0.0498790713617364</v>
       </c>
       <c r="H19" t="n">
-        <v>-7.122670958881376</v>
+        <v>43.41466767110382</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.09184313783912948</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1052641535130168</v>
+        <v>0.119065718745379</v>
       </c>
       <c r="H20" t="n">
-        <v>14.61297598237038</v>
+        <v>29.64029926104226</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.07533414722486551</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1027075405605807</v>
+        <v>0.09692689715160477</v>
       </c>
       <c r="H21" t="n">
-        <v>36.33597026592488</v>
+        <v>28.66263271327263</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1204592976011019</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1252389799416678</v>
+        <v>0.1215518800570374</v>
       </c>
       <c r="H22" t="n">
-        <v>3.967881629522453</v>
+        <v>0.907013802748184</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1312986137888283</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1565475747989499</v>
+        <v>0.1348735880244843</v>
       </c>
       <c r="H23" t="n">
-        <v>19.23018094519285</v>
+        <v>2.722781400728074</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.09539283949644414</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08622711028983518</v>
+        <v>0.09618537603376413</v>
       </c>
       <c r="H24" t="n">
-        <v>-9.60840379109443</v>
+        <v>0.8308134462750038</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.08579711767041676</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0803838000033763</v>
+        <v>0.09504332160463577</v>
       </c>
       <c r="H25" t="n">
-        <v>-6.309440006872152</v>
+        <v>10.77682349392857</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.03839809538484177</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04163958813266651</v>
+        <v>0.03503255496343723</v>
       </c>
       <c r="H26" t="n">
-        <v>8.441806072246925</v>
+        <v>-8.764862912271255</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.03582845994197422</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02962115237466539</v>
+        <v>0.03568213741077315</v>
       </c>
       <c r="H27" t="n">
-        <v>-17.32507503074885</v>
+        <v>-0.4083974902578826</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.09796179107594548</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1222909187671702</v>
+        <v>-0.1170021751636137</v>
       </c>
       <c r="H28" t="n">
-        <v>24.83532347051864</v>
+        <v>-19.43654140919805</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.1088522038387277</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1152403882506541</v>
+        <v>-0.108323391979923</v>
       </c>
       <c r="H29" t="n">
-        <v>5.868677148136511</v>
+        <v>0.4858072139615881</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.1219412424932649</v>
       </c>
       <c r="G30" t="n">
-        <v>0.115212895923461</v>
+        <v>0.1104770313925541</v>
       </c>
       <c r="H30" t="n">
-        <v>-5.517695598497392</v>
+        <v>-9.401422247558285</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.1076118874153121</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1270834437362409</v>
+        <v>0.1339887546543106</v>
       </c>
       <c r="H31" t="n">
-        <v>18.09424292112006</v>
+        <v>24.51110920227697</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.04499552197252324</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0672483138741299</v>
+        <v>0.06879579117944438</v>
       </c>
       <c r="H32" t="n">
-        <v>49.45557007916354</v>
+        <v>52.89475077421017</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.08487522191377532</v>
       </c>
       <c r="G33" t="n">
-        <v>0.08937736353120879</v>
+        <v>0.07998419535284922</v>
       </c>
       <c r="H33" t="n">
-        <v>5.304423971942235</v>
+        <v>-5.762608274408866</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.0004660235177815866</v>
       </c>
       <c r="G34" t="n">
-        <v>0.005457480162813007</v>
+        <v>0.02175806247647912</v>
       </c>
       <c r="H34" t="n">
-        <v>-1271.07398115706</v>
+        <v>4768.876493627212</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.04093434214336689</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02355354388336086</v>
+        <v>0.04997214367410231</v>
       </c>
       <c r="H35" t="n">
-        <v>-42.46018709457253</v>
+        <v>22.07877556473673</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0415113657231789</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04275770099854722</v>
+        <v>0.04177428305797724</v>
       </c>
       <c r="H36" t="n">
-        <v>3.002395256469236</v>
+        <v>0.6333622857692124</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.04216040373967738</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04257137040921367</v>
+        <v>0.04606173318676689</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9747692931828432</v>
+        <v>9.253539105504212</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.1039739096269103</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.1343654991106222</v>
+        <v>-0.1333355871482456</v>
       </c>
       <c r="H38" t="n">
-        <v>29.23001509971692</v>
+        <v>-28.23946663801892</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.09852995720668313</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.1414249290085001</v>
+        <v>-0.1327442537943629</v>
       </c>
       <c r="H39" t="n">
-        <v>43.53495425948228</v>
+        <v>-34.72476550041479</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1323218375265205</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1341369451877486</v>
+        <v>0.1326120599815447</v>
       </c>
       <c r="H40" t="n">
-        <v>1.371737042923334</v>
+        <v>0.2193307321371288</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1267009868675925</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1321249516937869</v>
+        <v>0.1314340158520553</v>
       </c>
       <c r="H41" t="n">
-        <v>4.280917584219489</v>
+        <v>3.735589675721303</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.09447104872146661</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07475705589559301</v>
+        <v>0.08373474584322492</v>
       </c>
       <c r="H42" t="n">
-        <v>-20.8677611741109</v>
+        <v>-11.3646487718116</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1058719362354479</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1239472556641214</v>
+        <v>0.09324325331726166</v>
       </c>
       <c r="H43" t="n">
-        <v>17.07281463944885</v>
+        <v>-11.92826292522071</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.01216440566173687</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.01991973375256573</v>
+        <v>-0.04416653568800351</v>
       </c>
       <c r="H44" t="n">
-        <v>63.75427050433906</v>
+        <v>-263.0800954536506</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.03656027190585381</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.0316695058854763</v>
+        <v>-0.0244912590474147</v>
       </c>
       <c r="H45" t="n">
-        <v>-13.37726927461508</v>
+        <v>33.01127762265546</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.05457460206694808</v>
       </c>
       <c r="G46" t="n">
-        <v>0.07004980401795489</v>
+        <v>0.0589744547898669</v>
       </c>
       <c r="H46" t="n">
-        <v>28.35605091911249</v>
+        <v>8.062088510551858</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.04037053293827826</v>
       </c>
       <c r="G47" t="n">
-        <v>0.07387244952482105</v>
+        <v>0.06057379932002995</v>
       </c>
       <c r="H47" t="n">
-        <v>82.98606470656019</v>
+        <v>50.04458675995207</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.03012034174997524</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01275660196105485</v>
+        <v>-0.01949670443179408</v>
       </c>
       <c r="H48" t="n">
-        <v>-57.64788438675224</v>
+        <v>35.27064004242214</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.034643218916641</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.0290166973941656</v>
+        <v>-0.02637524522337867</v>
       </c>
       <c r="H49" t="n">
-        <v>-16.24133581816983</v>
+        <v>23.86606658335315</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.09003797538347245</v>
       </c>
       <c r="G50" t="n">
-        <v>0.07047583201945075</v>
+        <v>0.08819248273421888</v>
       </c>
       <c r="H50" t="n">
-        <v>-21.72654736038475</v>
+        <v>-2.049682527171012</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.06553556525960107</v>
       </c>
       <c r="G51" t="n">
-        <v>0.06472351846617094</v>
+        <v>0.0870995761819072</v>
       </c>
       <c r="H51" t="n">
-        <v>-1.239093292647167</v>
+        <v>32.90428767477056</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.01470322082648128</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03125692136942061</v>
+        <v>0.03676487785947227</v>
       </c>
       <c r="H52" t="n">
-        <v>112.5855398507328</v>
+        <v>150.0464237961847</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.02817170113177487</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04067079723039933</v>
+        <v>0.04827891177818443</v>
       </c>
       <c r="H53" t="n">
-        <v>44.36755892077362</v>
+        <v>71.37378943627452</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.01940294010798635</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03371946292723737</v>
+        <v>0.05361562292700219</v>
       </c>
       <c r="H54" t="n">
-        <v>73.78532706678956</v>
+        <v>176.3273124001126</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06524260029020125</v>
       </c>
       <c r="G55" t="n">
-        <v>0.07199322519775851</v>
+        <v>0.08018503471644785</v>
       </c>
       <c r="H55" t="n">
-        <v>10.34695870110979</v>
+        <v>22.90287995846602</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.0641781204552333</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07979372051668639</v>
+        <v>0.07238545316051603</v>
       </c>
       <c r="H56" t="n">
-        <v>24.33165688039363</v>
+        <v>12.78836564091599</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.07576686946588479</v>
       </c>
       <c r="G57" t="n">
-        <v>0.08135244893279006</v>
+        <v>0.07803444021337512</v>
       </c>
       <c r="H57" t="n">
-        <v>7.3720605144182</v>
+        <v>2.992826235893697</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.02847630423672948</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01742703848572694</v>
+        <v>0.02007594425962676</v>
       </c>
       <c r="H58" t="n">
-        <v>-38.80161434976843</v>
+        <v>-29.49947404434497</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.02686028148673385</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01513085046164676</v>
+        <v>0.02150931881579798</v>
       </c>
       <c r="H59" t="n">
-        <v>-43.66831014366024</v>
+        <v>-19.9214690790887</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.04500636224518111</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03958603329077084</v>
+        <v>0.0501316294775587</v>
       </c>
       <c r="H60" t="n">
-        <v>-12.04347270921821</v>
+        <v>11.38787268443664</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.05002809311484576</v>
       </c>
       <c r="G61" t="n">
-        <v>0.050605421189823</v>
+        <v>0.04367693085334431</v>
       </c>
       <c r="H61" t="n">
-        <v>1.154007756505755</v>
+        <v>-12.69519157350564</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.01272562495970764</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.001646538825126508</v>
+        <v>0.001560842352268438</v>
       </c>
       <c r="H62" t="n">
-        <v>-87.06123408209938</v>
+        <v>112.2653493027685</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.004162259998573769</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.0153242155016748</v>
+        <v>-0.002486744729253774</v>
       </c>
       <c r="H63" t="n">
-        <v>-468.1705493391994</v>
+        <v>-159.745059897889</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.0376710040004436</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0448372166348656</v>
+        <v>0.05723941861148436</v>
       </c>
       <c r="H64" t="n">
-        <v>19.02315275254573</v>
+        <v>51.94556166013079</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.07640761714161863</v>
       </c>
       <c r="G65" t="n">
-        <v>0.08520056188024033</v>
+        <v>0.07872397730364174</v>
       </c>
       <c r="H65" t="n">
-        <v>11.50794262085717</v>
+        <v>3.031582777578079</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>-0.006238749439107168</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.001410504722487419</v>
+        <v>-0.01377521792144951</v>
       </c>
       <c r="H66" t="n">
-        <v>-77.39122661913991</v>
+        <v>-120.8009482653769</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.005892943546921596</v>
       </c>
       <c r="G67" t="n">
-        <v>0.01247797500344239</v>
+        <v>0.02957441878041811</v>
       </c>
       <c r="H67" t="n">
-        <v>111.7443499006661</v>
+        <v>401.8615662094275</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>0.0001716157251843049</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.002474122627611489</v>
+        <v>-0.0005726034575071117</v>
       </c>
       <c r="H68" t="n">
-        <v>-1541.664290935129</v>
+        <v>-433.654422922008</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0.007043594041830695</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0001775710895019229</v>
+        <v>0.0194750501965804</v>
       </c>
       <c r="H69" t="n">
-        <v>-97.47897041698657</v>
+        <v>176.4930812440555</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.06299908755829023</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.08299511715394144</v>
+        <v>-0.09167015668050647</v>
       </c>
       <c r="H70" t="n">
-        <v>31.74018921647044</v>
+        <v>-45.51029266207735</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.04730516206304128</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07989329883757909</v>
+        <v>-0.05958671525689395</v>
       </c>
       <c r="H71" t="n">
-        <v>68.88917689597849</v>
+        <v>-25.96239534595748</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.06847592646162251</v>
       </c>
       <c r="G72" t="n">
-        <v>0.07286037119961764</v>
+        <v>0.06864490732020623</v>
       </c>
       <c r="H72" t="n">
-        <v>6.402899478041231</v>
+        <v>0.2467741107211202</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.07366264370932236</v>
       </c>
       <c r="G73" t="n">
-        <v>0.06857544605495157</v>
+        <v>0.07355517349498344</v>
       </c>
       <c r="H73" t="n">
-        <v>-6.90607531606551</v>
+        <v>-0.1458951361602016</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.06303615637490191</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0643056071416598</v>
+        <v>0.04964587276156487</v>
       </c>
       <c r="H74" t="n">
-        <v>2.013845449598703</v>
+        <v>-21.24222729206319</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.02646870739540554</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02333499401278389</v>
+        <v>0.04375255155885752</v>
       </c>
       <c r="H75" t="n">
-        <v>-11.83931400883445</v>
+        <v>65.29916215875403</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.01714470650454962</v>
       </c>
       <c r="G76" t="n">
-        <v>0.01232501538981533</v>
+        <v>0.004193854143386342</v>
       </c>
       <c r="H76" t="n">
-        <v>-28.11183214746376</v>
+        <v>-75.53848972408227</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.01169430463304436</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.005207858937351996</v>
+        <v>-0.005346464489229153</v>
       </c>
       <c r="H77" t="n">
-        <v>-55.46670707862139</v>
+        <v>54.28146728688975</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.002539526868269664</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01514538969047301</v>
+        <v>0.02408172948017119</v>
       </c>
       <c r="H78" t="n">
-        <v>496.3862749281521</v>
+        <v>848.2762234596697</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>-0.006752083176529837</v>
       </c>
       <c r="G79" t="n">
-        <v>0.006849145557186593</v>
+        <v>0.01188644574325961</v>
       </c>
       <c r="H79" t="n">
-        <v>-201.4375175500525</v>
+        <v>276.0411628899472</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.01234481053610307</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03388866021727153</v>
+        <v>0.02804511438808627</v>
       </c>
       <c r="H80" t="n">
-        <v>174.5174591231052</v>
+        <v>127.1814079776017</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.04004608055976637</v>
       </c>
       <c r="G81" t="n">
-        <v>0.05052167960173507</v>
+        <v>0.07149005592891133</v>
       </c>
       <c r="H81" t="n">
-        <v>26.15886222956201</v>
+        <v>78.51948287977076</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.03928809251547295</v>
       </c>
       <c r="G82" t="n">
-        <v>0.04133967884043678</v>
+        <v>0.04790636922374413</v>
       </c>
       <c r="H82" t="n">
-        <v>5.221903619158515</v>
+        <v>21.93610368046506</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.04149682722649796</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04064623451345029</v>
+        <v>0.03293265445716657</v>
       </c>
       <c r="H83" t="n">
-        <v>-2.049777705666417</v>
+        <v>-20.63813872464618</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.03654648917907651</v>
       </c>
       <c r="G84" t="n">
-        <v>0.008861756028669938</v>
+        <v>-0.001152305189795306</v>
       </c>
       <c r="H84" t="n">
-        <v>-75.7521003310396</v>
+        <v>-103.1529846386859</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.03101871278460367</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0252933985595199</v>
+        <v>0.03551700329221933</v>
       </c>
       <c r="H85" t="n">
-        <v>-18.45761384374907</v>
+        <v>14.50186066343931</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.03261223752283318</v>
       </c>
       <c r="G86" t="n">
-        <v>0.008102041255561561</v>
+        <v>0.01595684233343614</v>
       </c>
       <c r="H86" t="n">
-        <v>-75.1564385918354</v>
+        <v>-51.07099805015191</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.05399281271560582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04787491911072195</v>
+        <v>0.04286452489930585</v>
       </c>
       <c r="H87" t="n">
-        <v>-11.33094072558955</v>
+        <v>-20.61068363842342</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>0.08448630414914524</v>
       </c>
       <c r="G88" t="n">
-        <v>0.07738880473272244</v>
+        <v>0.07620926866860132</v>
       </c>
       <c r="H88" t="n">
-        <v>-8.400769199104088</v>
+        <v>-9.796896152460768</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>0.09030780820119737</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1002038122783687</v>
+        <v>0.09439417009589805</v>
       </c>
       <c r="H89" t="n">
-        <v>10.95808244523437</v>
+        <v>4.524926444451683</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.04974785729329481</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.02094726817387678</v>
+        <v>-0.02700218330790462</v>
       </c>
       <c r="H90" t="n">
-        <v>-57.89312482268433</v>
+        <v>45.72191692858284</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>-0.0205140569395008</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01325837363055583</v>
+        <v>-0.03390071934263625</v>
       </c>
       <c r="H91" t="n">
-        <v>-35.36932421677061</v>
+        <v>-65.25604585487325</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0.03950860788423817</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04412224265582079</v>
+        <v>0.0350819657594029</v>
       </c>
       <c r="H92" t="n">
-        <v>11.67754324602062</v>
+        <v>-11.20424728151777</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>0.04921641955585528</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04343592600556991</v>
+        <v>0.03097033942957023</v>
       </c>
       <c r="H93" t="n">
-        <v>-11.74505094529507</v>
+        <v>-37.07315625749195</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.09075840206556264</v>
       </c>
       <c r="G94" t="n">
-        <v>0.08810000191756381</v>
+        <v>0.09625272025721075</v>
       </c>
       <c r="H94" t="n">
-        <v>-2.929095364722744</v>
+        <v>6.053784626660891</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.1040519379641745</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1046156689399186</v>
+        <v>0.1069265533362545</v>
       </c>
       <c r="H95" t="n">
-        <v>0.5417784490839467</v>
+        <v>2.762673553537988</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.1120414179740702</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07464851760242899</v>
+        <v>-0.07616542975927421</v>
       </c>
       <c r="H96" t="n">
-        <v>-33.37417630710017</v>
+        <v>32.02029112403665</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.1069875373380423</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.08791105304530678</v>
+        <v>-0.09729318108202745</v>
       </c>
       <c r="H97" t="n">
-        <v>-17.83056678130712</v>
+        <v>9.061201423287422</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.09673381833469225</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1028032107707708</v>
+        <v>0.1002679927747435</v>
       </c>
       <c r="H98" t="n">
-        <v>6.27432323107404</v>
+        <v>3.653504535325241</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1138977837115592</v>
       </c>
       <c r="G99" t="n">
-        <v>0.114682994966811</v>
+        <v>0.1211216839856967</v>
       </c>
       <c r="H99" t="n">
-        <v>0.6893999423556041</v>
+        <v>6.34244147579876</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.03841854759081696</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02769251486626433</v>
+        <v>0.02583622442779975</v>
       </c>
       <c r="H100" t="n">
-        <v>-27.91889177798183</v>
+        <v>-32.75064767421015</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.02016612812549264</v>
       </c>
       <c r="G101" t="n">
-        <v>0.01397504241344669</v>
+        <v>0.03020579232511213</v>
       </c>
       <c r="H101" t="n">
-        <v>-30.70041841209767</v>
+        <v>49.78478832001486</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>-0.00238001325517331</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.01053178147599028</v>
+        <v>0.01176047455068078</v>
       </c>
       <c r="H102" t="n">
-        <v>342.5093622103953</v>
+        <v>594.1348341282409</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>-0.00649003682782449</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.0004738948276033009</v>
+        <v>-0.01435672845453136</v>
       </c>
       <c r="H103" t="n">
-        <v>-92.69811805117052</v>
+        <v>-121.211817981992</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.04589909260773555</v>
       </c>
       <c r="G104" t="n">
-        <v>0.07968380164420587</v>
+        <v>0.08516121405590174</v>
       </c>
       <c r="H104" t="n">
-        <v>73.60648569940672</v>
+        <v>85.54008198747962</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.06644927337649718</v>
       </c>
       <c r="G105" t="n">
-        <v>0.05786410526273758</v>
+        <v>0.0677074537087955</v>
       </c>
       <c r="H105" t="n">
-        <v>-12.91988260746902</v>
+        <v>1.89344483147249</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.2577623977258113</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.2839001240278664</v>
+        <v>-0.3156817760757076</v>
       </c>
       <c r="H106" t="n">
-        <v>10.14024021062161</v>
+        <v>-22.4700650137134</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.289419149351508</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.3060648026870837</v>
+        <v>-0.2325767994660138</v>
       </c>
       <c r="H107" t="n">
-        <v>5.75140013121906</v>
+        <v>19.64014821163664</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.1510264032137262</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1543331828543874</v>
+        <v>0.1491283318719022</v>
       </c>
       <c r="H108" t="n">
-        <v>2.189537438683212</v>
+        <v>-1.256781133255186</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.1888068342506362</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1930757349882476</v>
+        <v>0.1722418124887677</v>
       </c>
       <c r="H109" t="n">
-        <v>2.260988461860721</v>
+        <v>-8.773528684813858</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.07189517001444425</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03925977901700431</v>
+        <v>0.07097605961650415</v>
       </c>
       <c r="H110" t="n">
-        <v>-45.3930229122252</v>
+        <v>-1.278403539146569</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.06540269897069602</v>
       </c>
       <c r="G111" t="n">
-        <v>0.08522555586531526</v>
+        <v>0.08730960193050201</v>
       </c>
       <c r="H111" t="n">
-        <v>30.30892792895437</v>
+        <v>33.49541120561627</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.08418620187233398</v>
       </c>
       <c r="G112" t="n">
-        <v>0.09926984905709967</v>
+        <v>0.1195033322034175</v>
       </c>
       <c r="H112" t="n">
-        <v>17.91700640876947</v>
+        <v>41.9512099912061</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,10 +4166,10 @@
         <v>0.0770204906452046</v>
       </c>
       <c r="G113" t="n">
-        <v>0.06732200194561302</v>
+        <v>0.05239377839765511</v>
       </c>
       <c r="H113" t="n">
-        <v>-12.59208896015441</v>
+        <v>-31.97423444235456</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>

--- a/Code/Data/DJI/Compared Returns/Auto Recurrence/input 250/DJI_returns_compared_trimester.xlsx
+++ b/Code/Data/DJI/Compared Returns/Auto Recurrence/input 250/DJI_returns_compared_trimester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>-0.02128444168333563</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.009285815538273378</v>
+        <v>-0.008342533767788589</v>
       </c>
       <c r="H2" t="n">
-        <v>56.37275491448016</v>
+        <v>60.80454497277105</v>
       </c>
       <c r="I2" t="n">
-        <v>62.00265328516627</v>
+        <v>1.055801969401484</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.002664891383783825</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008099029615882528</v>
+        <v>-0.004314853418649606</v>
       </c>
       <c r="H3" t="n">
-        <v>203.9159368808075</v>
+        <v>-261.9147949108167</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.05321994618623679</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07704765219784708</v>
+        <v>0.06196979119970285</v>
       </c>
       <c r="H4" t="n">
-        <v>44.77213473352285</v>
+        <v>16.44091292923716</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.0852934825407035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07299706921856221</v>
+        <v>0.08184307896207112</v>
       </c>
       <c r="H5" t="n">
-        <v>-14.41659193159716</v>
+        <v>-4.045330869197176</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.0554920936022294</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02522870136459212</v>
+        <v>0.03719902544840702</v>
       </c>
       <c r="H6" t="n">
-        <v>-54.5364037885596</v>
+        <v>-32.9651793009436</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.07491945851042606</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06158347119308021</v>
+        <v>0.06246257012660723</v>
       </c>
       <c r="H7" t="n">
-        <v>-17.80043206731127</v>
+        <v>-16.62704006608014</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.01989470793288118</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.003574231239307375</v>
+        <v>0.02601198326217881</v>
       </c>
       <c r="H8" t="n">
-        <v>82.03426131529164</v>
+        <v>230.7482540077265</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.007233984490205318</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.02578863052461392</v>
+        <v>0.001900531503620539</v>
       </c>
       <c r="H9" t="n">
-        <v>-256.4927538831643</v>
+        <v>126.2722640087745</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.04956874841392311</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06706492555631248</v>
+        <v>-0.03620002178713299</v>
       </c>
       <c r="H10" t="n">
-        <v>-35.29679022009554</v>
+        <v>26.9700709712393</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.07728189684970925</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.09213651365351634</v>
+        <v>-0.06379264017751023</v>
       </c>
       <c r="H11" t="n">
-        <v>-19.22134084350309</v>
+        <v>17.45461385145824</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.07980687010666844</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.09743030749322713</v>
+        <v>-0.0856804360301819</v>
       </c>
       <c r="H12" t="n">
-        <v>-22.08260687708154</v>
+        <v>-7.359724689945808</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.0456853607372041</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03956193447658619</v>
+        <v>-0.06392277726684616</v>
       </c>
       <c r="H13" t="n">
-        <v>13.40347577825136</v>
+        <v>-39.91960714625665</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.05569564680090808</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01849477859383914</v>
+        <v>0.001485794048000808</v>
       </c>
       <c r="H14" t="n">
-        <v>66.79313437197106</v>
+        <v>102.6677022951399</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08457829896791694</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.09190737515808232</v>
+        <v>-0.1097180158766852</v>
       </c>
       <c r="H15" t="n">
-        <v>-8.665433426304215</v>
+        <v>-29.72360193517785</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.1551086605234518</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1614096926956944</v>
+        <v>-0.16867077556421</v>
       </c>
       <c r="H16" t="n">
-        <v>-4.062334205568058</v>
+        <v>-8.743622048562322</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.196307304145773</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1864821816855844</v>
+        <v>-0.1528735454597993</v>
       </c>
       <c r="H17" t="n">
-        <v>5.004970397277071</v>
+        <v>22.12539104185387</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1089990278022111</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1265622770855052</v>
+        <v>-0.1340676635271069</v>
       </c>
       <c r="H18" t="n">
-        <v>-16.11321645470475</v>
+        <v>-22.99895350478278</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.08814841109674791</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0498790713617364</v>
+        <v>-0.08059961444024324</v>
       </c>
       <c r="H19" t="n">
-        <v>43.41466767110382</v>
+        <v>8.563735366959062</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.09184313783912948</v>
       </c>
       <c r="G20" t="n">
-        <v>0.119065718745379</v>
+        <v>0.1015373744316124</v>
       </c>
       <c r="H20" t="n">
-        <v>29.64029926104226</v>
+        <v>10.55521056942016</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.07533414722486551</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09692689715160477</v>
+        <v>0.1079118283135256</v>
       </c>
       <c r="H21" t="n">
-        <v>28.66263271327263</v>
+        <v>43.24424220455925</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1204592976011019</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1215518800570374</v>
+        <v>0.108496231967643</v>
       </c>
       <c r="H22" t="n">
-        <v>0.907013802748184</v>
+        <v>-9.931209854032437</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1312986137888283</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1348735880244843</v>
+        <v>0.154321105423759</v>
       </c>
       <c r="H23" t="n">
-        <v>2.722781400728074</v>
+        <v>17.53445140857199</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.09539283949644414</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09618537603376413</v>
+        <v>0.08152681287232966</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8308134462750038</v>
+        <v>-14.53571011965878</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.08579711767041676</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09504332160463577</v>
+        <v>0.1048506176634963</v>
       </c>
       <c r="H25" t="n">
-        <v>10.77682349392857</v>
+        <v>22.20762248246165</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.03839809538484177</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03503255496343723</v>
+        <v>0.0459404613637467</v>
       </c>
       <c r="H26" t="n">
-        <v>-8.764862912271255</v>
+        <v>19.64255232795321</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.03582845994197422</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03568213741077315</v>
+        <v>0.03827169817107132</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.4083974902578826</v>
+        <v>6.819266675302339</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.09796179107594548</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1170021751636137</v>
+        <v>-0.1244527099268545</v>
       </c>
       <c r="H28" t="n">
-        <v>-19.43654140919805</v>
+        <v>-27.04209320792408</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.1088522038387277</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.108323391979923</v>
+        <v>-0.1144743174477764</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4858072139615881</v>
+        <v>-5.16490563422883</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.1219412424932649</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1104770313925541</v>
+        <v>0.1152601828341774</v>
       </c>
       <c r="H30" t="n">
-        <v>-9.401422247558285</v>
+        <v>-5.478917159185515</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.1076118874153121</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1339887546543106</v>
+        <v>0.1218691744291885</v>
       </c>
       <c r="H31" t="n">
-        <v>24.51110920227697</v>
+        <v>13.24880304241159</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.04499552197252324</v>
       </c>
       <c r="G32" t="n">
-        <v>0.06879579117944438</v>
+        <v>0.06172847497087901</v>
       </c>
       <c r="H32" t="n">
-        <v>52.89475077421017</v>
+        <v>37.18804064229733</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.08487522191377532</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07998419535284922</v>
+        <v>0.0796585776010805</v>
       </c>
       <c r="H33" t="n">
-        <v>-5.762608274408866</v>
+        <v>-6.146251161492581</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.0004660235177815866</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02175806247647912</v>
+        <v>0.008626783180617197</v>
       </c>
       <c r="H34" t="n">
-        <v>4768.876493627212</v>
+        <v>1951.147603383474</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.04093434214336689</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04997214367410231</v>
+        <v>0.05200188181532801</v>
       </c>
       <c r="H35" t="n">
-        <v>22.07877556473673</v>
+        <v>27.0372970284916</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0415113657231789</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04177428305797724</v>
+        <v>0.04796299108262706</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6333622857692124</v>
+        <v>15.54182871860016</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.04216040373967738</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04606173318676689</v>
+        <v>0.03399071226949776</v>
       </c>
       <c r="H37" t="n">
-        <v>9.253539105504212</v>
+        <v>-19.37764050037093</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.1039739096269103</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.1333355871482456</v>
+        <v>-0.1081158267822515</v>
       </c>
       <c r="H38" t="n">
-        <v>-28.23946663801892</v>
+        <v>-3.9836120140174</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.09852995720668313</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.1327442537943629</v>
+        <v>-0.1649739719017422</v>
       </c>
       <c r="H39" t="n">
-        <v>-34.72476550041479</v>
+        <v>-67.43534309639615</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1323218375265205</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1326120599815447</v>
+        <v>0.1341602683191898</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2193307321371288</v>
+        <v>1.389363106676066</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1267009868675925</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1314340158520553</v>
+        <v>0.124577001486727</v>
       </c>
       <c r="H41" t="n">
-        <v>3.735589675721303</v>
+        <v>-1.676376351421132</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.09447104872146661</v>
       </c>
       <c r="G42" t="n">
-        <v>0.08373474584322492</v>
+        <v>0.09012871491491764</v>
       </c>
       <c r="H42" t="n">
-        <v>-11.3646487718116</v>
+        <v>-4.596470416404157</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1058719362354479</v>
       </c>
       <c r="G43" t="n">
-        <v>0.09324325331726166</v>
+        <v>0.1073137817111623</v>
       </c>
       <c r="H43" t="n">
-        <v>-11.92826292522071</v>
+        <v>1.361876930736299</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.01216440566173687</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.04416653568800351</v>
+        <v>-0.02472913903989349</v>
       </c>
       <c r="H44" t="n">
-        <v>-263.0800954536506</v>
+        <v>-103.2909763744478</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.03656027190585381</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.0244912590474147</v>
+        <v>-0.02889100113693434</v>
       </c>
       <c r="H45" t="n">
-        <v>33.01127762265546</v>
+        <v>20.97706162762841</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.05457460206694808</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0589744547898669</v>
+        <v>0.06451760408408605</v>
       </c>
       <c r="H46" t="n">
-        <v>8.062088510551858</v>
+        <v>18.21910126791329</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.04037053293827826</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06057379932002995</v>
+        <v>0.05595390799504345</v>
       </c>
       <c r="H47" t="n">
-        <v>50.04458675995207</v>
+        <v>38.60086534054508</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.03012034174997524</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01949670443179408</v>
+        <v>-0.01789872615965248</v>
       </c>
       <c r="H48" t="n">
-        <v>35.27064004242214</v>
+        <v>40.57595259633071</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.034643218916641</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.02637524522337867</v>
+        <v>-0.03594087438490539</v>
       </c>
       <c r="H49" t="n">
-        <v>23.86606658335315</v>
+        <v>-3.745770482202662</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.09003797538347245</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08819248273421888</v>
+        <v>0.070463822042556</v>
       </c>
       <c r="H50" t="n">
-        <v>-2.049682527171012</v>
+        <v>-21.73988615087132</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.06553556525960107</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0870995761819072</v>
+        <v>0.07001962251618168</v>
       </c>
       <c r="H51" t="n">
-        <v>32.90428767477056</v>
+        <v>6.842173770559942</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.01470322082648128</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03676487785947227</v>
+        <v>0.05005233802657976</v>
       </c>
       <c r="H52" t="n">
-        <v>150.0464237961847</v>
+        <v>240.4175086347941</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.02817170113177487</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04827891177818443</v>
+        <v>0.04725616363100108</v>
       </c>
       <c r="H53" t="n">
-        <v>71.37378943627452</v>
+        <v>67.74337981919325</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.01940294010798635</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05361562292700219</v>
+        <v>0.03542841194011927</v>
       </c>
       <c r="H54" t="n">
-        <v>176.3273124001126</v>
+        <v>82.59300777585121</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06524260029020125</v>
       </c>
       <c r="G55" t="n">
-        <v>0.08018503471644785</v>
+        <v>0.05320116154648255</v>
       </c>
       <c r="H55" t="n">
-        <v>22.90287995846602</v>
+        <v>-18.45640530904345</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.0641781204552333</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07238545316051603</v>
+        <v>0.0687233222743984</v>
       </c>
       <c r="H56" t="n">
-        <v>12.78836564091599</v>
+        <v>7.082167235382888</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.07576686946588479</v>
       </c>
       <c r="G57" t="n">
-        <v>0.07803444021337512</v>
+        <v>0.09259900104642481</v>
       </c>
       <c r="H57" t="n">
-        <v>2.992826235893697</v>
+        <v>22.21568833343306</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.02847630423672948</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02007594425962676</v>
+        <v>0.02073588471531036</v>
       </c>
       <c r="H58" t="n">
-        <v>-29.49947404434497</v>
+        <v>-27.18196665224319</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.02686028148673385</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02150931881579798</v>
+        <v>0.01444667423021996</v>
       </c>
       <c r="H59" t="n">
-        <v>-19.9214690790887</v>
+        <v>-46.21547716335328</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.04500636224518111</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0501316294775587</v>
+        <v>0.04850012514166407</v>
       </c>
       <c r="H60" t="n">
-        <v>11.38787268443664</v>
+        <v>7.762820015201376</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.05002809311484576</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04367693085334431</v>
+        <v>0.03939137499901191</v>
       </c>
       <c r="H61" t="n">
-        <v>-12.69519157350564</v>
+        <v>-21.261490201947</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.01272562495970764</v>
       </c>
       <c r="G62" t="n">
-        <v>0.001560842352268438</v>
+        <v>0.008573311763512463</v>
       </c>
       <c r="H62" t="n">
-        <v>112.2653493027685</v>
+        <v>167.3704575661911</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.004162259998573769</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.002486744729253774</v>
+        <v>0.007430469355934462</v>
       </c>
       <c r="H63" t="n">
-        <v>-159.745059897889</v>
+        <v>78.52006742684429</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.0376710040004436</v>
       </c>
       <c r="G64" t="n">
-        <v>0.05723941861148436</v>
+        <v>0.04946852172658008</v>
       </c>
       <c r="H64" t="n">
-        <v>51.94556166013079</v>
+        <v>31.31723732661217</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.07640761714161863</v>
       </c>
       <c r="G65" t="n">
-        <v>0.07872397730364174</v>
+        <v>0.08797932224794222</v>
       </c>
       <c r="H65" t="n">
-        <v>3.031582777578079</v>
+        <v>15.14470093325365</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>-0.006238749439107168</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.01377521792144951</v>
+        <v>-0.004900093444820923</v>
       </c>
       <c r="H66" t="n">
-        <v>-120.8009482653769</v>
+        <v>21.45712065137563</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.005892943546921596</v>
       </c>
       <c r="G67" t="n">
-        <v>0.02957441878041811</v>
+        <v>0.01883988497237151</v>
       </c>
       <c r="H67" t="n">
-        <v>401.8615662094275</v>
+        <v>219.7024512853724</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>0.0001716157251843049</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.0005726034575071117</v>
+        <v>-0.00804117964753232</v>
       </c>
       <c r="H68" t="n">
-        <v>-433.654422922008</v>
+        <v>-4785.572746260042</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0.007043594041830695</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0194750501965804</v>
+        <v>0.01947888170710473</v>
       </c>
       <c r="H69" t="n">
-        <v>176.4930812440555</v>
+        <v>176.5474783387997</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.06299908755829023</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.09167015668050647</v>
+        <v>-0.09835241164728405</v>
       </c>
       <c r="H70" t="n">
-        <v>-45.51029266207735</v>
+        <v>-56.11720019957905</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.04730516206304128</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.05958671525689395</v>
+        <v>-0.06068507330091615</v>
       </c>
       <c r="H71" t="n">
-        <v>-25.96239534595748</v>
+        <v>-28.28425198088133</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.06847592646162251</v>
       </c>
       <c r="G72" t="n">
-        <v>0.06864490732020623</v>
+        <v>0.07324383223624413</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2467741107211202</v>
+        <v>6.962893415241053</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.07366264370932236</v>
       </c>
       <c r="G73" t="n">
-        <v>0.07355517349498344</v>
+        <v>0.06674862747297748</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.1458951361602016</v>
+        <v>-9.386054977375027</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.06303615637490191</v>
       </c>
       <c r="G74" t="n">
-        <v>0.04964587276156487</v>
+        <v>0.061011919894971</v>
       </c>
       <c r="H74" t="n">
-        <v>-21.24222729206319</v>
+        <v>-3.211230817900678</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.02646870739540554</v>
       </c>
       <c r="G75" t="n">
-        <v>0.04375255155885752</v>
+        <v>0.0352983885177753</v>
       </c>
       <c r="H75" t="n">
-        <v>65.29916215875403</v>
+        <v>33.35894341369472</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.01714470650454962</v>
       </c>
       <c r="G76" t="n">
-        <v>0.004193854143386342</v>
+        <v>0.00837587912081604</v>
       </c>
       <c r="H76" t="n">
-        <v>-75.53848972408227</v>
+        <v>-51.14597547299298</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.01169430463304436</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.005346464489229153</v>
+        <v>-0.004207784925497885</v>
       </c>
       <c r="H77" t="n">
-        <v>54.28146728688975</v>
+        <v>64.01851108266813</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.002539526868269664</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02408172948017119</v>
+        <v>0.0219363830007418</v>
       </c>
       <c r="H78" t="n">
-        <v>848.2762234596697</v>
+        <v>763.7980276888509</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>-0.006752083176529837</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01188644574325961</v>
+        <v>0.007412969209614893</v>
       </c>
       <c r="H79" t="n">
-        <v>276.0411628899472</v>
+        <v>209.7878834695385</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.01234481053610307</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02804511438808627</v>
+        <v>0.02863405519779794</v>
       </c>
       <c r="H80" t="n">
-        <v>127.1814079776017</v>
+        <v>131.9521641426257</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.04004608055976637</v>
       </c>
       <c r="G81" t="n">
-        <v>0.07149005592891133</v>
+        <v>0.06794265805230112</v>
       </c>
       <c r="H81" t="n">
-        <v>78.51948287977076</v>
+        <v>69.66119306207955</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.03928809251547295</v>
       </c>
       <c r="G82" t="n">
-        <v>0.04790636922374413</v>
+        <v>0.03769672524762763</v>
       </c>
       <c r="H82" t="n">
-        <v>21.93610368046506</v>
+        <v>-4.050507840813581</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.04149682722649796</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03293265445716657</v>
+        <v>0.03745783349589238</v>
       </c>
       <c r="H83" t="n">
-        <v>-20.63813872464618</v>
+        <v>-9.733259144271313</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.03654648917907651</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.001152305189795306</v>
+        <v>0.01718577608315336</v>
       </c>
       <c r="H84" t="n">
-        <v>-103.1529846386859</v>
+        <v>-52.97557585095613</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.03101871278460367</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03551700329221933</v>
+        <v>0.03143460354308309</v>
       </c>
       <c r="H85" t="n">
-        <v>14.50186066343931</v>
+        <v>1.340773749598823</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.03261223752283318</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01595684233343614</v>
+        <v>0.02475978645379102</v>
       </c>
       <c r="H86" t="n">
-        <v>-51.07099805015191</v>
+        <v>-24.07823463061783</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.05399281271560582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04286452489930585</v>
+        <v>0.05921402503410462</v>
       </c>
       <c r="H87" t="n">
-        <v>-20.61068363842342</v>
+        <v>9.67019878367938</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>0.08448630414914524</v>
       </c>
       <c r="G88" t="n">
-        <v>0.07620926866860132</v>
+        <v>0.08040394412150109</v>
       </c>
       <c r="H88" t="n">
-        <v>-9.796896152460768</v>
+        <v>-4.831978471253138</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>0.09030780820119737</v>
       </c>
       <c r="G89" t="n">
-        <v>0.09439417009589805</v>
+        <v>0.08762283178684471</v>
       </c>
       <c r="H89" t="n">
-        <v>4.524926444451683</v>
+        <v>-2.973138721704748</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.04974785729329481</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.02700218330790462</v>
+        <v>-0.03089416402680597</v>
       </c>
       <c r="H90" t="n">
-        <v>45.72191692858284</v>
+        <v>37.89850315629575</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>-0.0205140569395008</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.03390071934263625</v>
+        <v>-0.01368588421225057</v>
       </c>
       <c r="H91" t="n">
-        <v>-65.25604585487325</v>
+        <v>33.28533574508246</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0.03950860788423817</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0350819657594029</v>
+        <v>0.02211126215639116</v>
       </c>
       <c r="H92" t="n">
-        <v>-11.20424728151777</v>
+        <v>-44.03431722732915</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>0.04921641955585528</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03097033942957023</v>
+        <v>0.04350674742870718</v>
       </c>
       <c r="H93" t="n">
-        <v>-37.07315625749195</v>
+        <v>-11.60115298649112</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.09075840206556264</v>
       </c>
       <c r="G94" t="n">
-        <v>0.09625272025721075</v>
+        <v>0.09215913778737957</v>
       </c>
       <c r="H94" t="n">
-        <v>6.053784626660891</v>
+        <v>1.543367544974022</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.1040519379641745</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1069265533362545</v>
+        <v>0.1042748571488146</v>
       </c>
       <c r="H95" t="n">
-        <v>2.762673553537988</v>
+        <v>0.2142383784498553</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.1120414179740702</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07616542975927421</v>
+        <v>-0.06587266836969385</v>
       </c>
       <c r="H96" t="n">
-        <v>32.02029112403665</v>
+        <v>41.20685942680697</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.1069875373380423</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.09729318108202745</v>
+        <v>-0.0973108590702616</v>
       </c>
       <c r="H97" t="n">
-        <v>9.061201423287422</v>
+        <v>9.044678014417565</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.09673381833469225</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1002679927747435</v>
+        <v>0.1035510273511877</v>
       </c>
       <c r="H98" t="n">
-        <v>3.653504535325241</v>
+        <v>7.047389562260824</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1138977837115592</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1211216839856967</v>
+        <v>0.1240703837033587</v>
       </c>
       <c r="H99" t="n">
-        <v>6.34244147579876</v>
+        <v>8.931341471543579</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.03841854759081696</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02583622442779975</v>
+        <v>0.0152795586179943</v>
       </c>
       <c r="H100" t="n">
-        <v>-32.75064767421015</v>
+        <v>-60.22869271183351</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.02016612812549264</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03020579232511213</v>
+        <v>0.02357672858513132</v>
       </c>
       <c r="H101" t="n">
-        <v>49.78478832001486</v>
+        <v>16.91252003564945</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>-0.00238001325517331</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01176047455068078</v>
+        <v>0.003921176532388443</v>
       </c>
       <c r="H102" t="n">
-        <v>594.1348341282409</v>
+        <v>264.7543989036694</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>-0.00649003682782449</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.01435672845453136</v>
+        <v>0.004259803462156462</v>
       </c>
       <c r="H103" t="n">
-        <v>-121.211817981992</v>
+        <v>165.6360445274142</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.04589909260773555</v>
       </c>
       <c r="G104" t="n">
-        <v>0.08516121405590174</v>
+        <v>0.07094991632776734</v>
       </c>
       <c r="H104" t="n">
-        <v>85.54008198747962</v>
+        <v>54.57803694317451</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.06644927337649718</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0677074537087955</v>
+        <v>0.09153908293187428</v>
       </c>
       <c r="H105" t="n">
-        <v>1.89344483147249</v>
+        <v>37.75783884530971</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.2577623977258113</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.3156817760757076</v>
+        <v>-0.2828276236254905</v>
       </c>
       <c r="H106" t="n">
-        <v>-22.4700650137134</v>
+        <v>-9.724159194989253</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.289419149351508</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.2325767994660138</v>
+        <v>-0.2799552414380663</v>
       </c>
       <c r="H107" t="n">
-        <v>19.64014821163664</v>
+        <v>3.269966045663225</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.1510264032137262</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1491283318719022</v>
+        <v>0.157618723824573</v>
       </c>
       <c r="H108" t="n">
-        <v>-1.256781133255186</v>
+        <v>4.365011991656603</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.1888068342506362</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1722418124887677</v>
+        <v>0.2089758887134072</v>
       </c>
       <c r="H109" t="n">
-        <v>-8.773528684813858</v>
+        <v>10.68237521317532</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.07189517001444425</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07097605961650415</v>
+        <v>0.07537624877943692</v>
       </c>
       <c r="H110" t="n">
-        <v>-1.278403539146569</v>
+        <v>4.84188126169436</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.06540269897069602</v>
       </c>
       <c r="G111" t="n">
-        <v>0.08730960193050201</v>
+        <v>0.08710860882096835</v>
       </c>
       <c r="H111" t="n">
-        <v>33.49541120561627</v>
+        <v>33.18809497448686</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.08418620187233398</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1195033322034175</v>
+        <v>0.1087088305641254</v>
       </c>
       <c r="H112" t="n">
-        <v>41.9512099912061</v>
+        <v>29.12903557399976</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,14 +4166,14 @@
         <v>0.0770204906452046</v>
       </c>
       <c r="G113" t="n">
-        <v>0.05239377839765511</v>
+        <v>0.08538819626886425</v>
       </c>
       <c r="H113" t="n">
-        <v>-31.97423444235456</v>
+        <v>10.86425904790135</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>